--- a/デザイン進捗.xlsx
+++ b/デザイン進捗.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kfc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>about.php</t>
     <phoneticPr fontId="1"/>
@@ -489,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +511,20 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -584,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,6 +642,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,10 +940,10 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -991,7 +1017,7 @@
       <c r="C4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1004,7 +1030,7 @@
       <c r="C5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1064,15 +1090,17 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
@@ -1185,15 +1213,15 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
@@ -1391,6 +1419,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/デザイン進捗.xlsx
+++ b/デザイン進捗.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>about.php</t>
     <phoneticPr fontId="1"/>
@@ -435,13 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロゴだけ変える</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -481,6 +474,17 @@
     <t>黄色はまだやってない</t>
     <rPh sb="0" eb="2">
       <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>td画像小さい
+原因が不明？</t>
+    <rPh sb="8" eb="10">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -647,14 +651,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -940,10 +944,10 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -951,8 +955,8 @@
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -964,16 +968,16 @@
         <v>66</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="14"/>
     </row>
@@ -988,7 +992,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1000,10 +1004,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1015,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -1028,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
@@ -1052,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -1067,10 +1071,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1082,25 +1086,27 @@
         <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
@@ -1132,10 +1138,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1147,10 +1153,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1162,10 +1168,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1177,7 +1183,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="3"/>
@@ -1190,10 +1196,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1205,10 +1211,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1217,33 +1223,45 @@
         <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
@@ -1251,10 +1269,10 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1264,10 +1282,10 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1279,10 +1297,10 @@
         <v>39</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1327,10 +1345,10 @@
         <v>42</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1342,10 +1360,10 @@
         <v>44</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -1357,10 +1375,10 @@
         <v>48</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1372,10 +1390,10 @@
         <v>49</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -1387,10 +1405,10 @@
         <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1409,10 +1427,10 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3"/>
     </row>

--- a/デザイン進捗.xlsx
+++ b/デザイン進捗.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>about.php</t>
     <phoneticPr fontId="1"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トークルーム？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>message_add.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -292,10 +288,6 @@
   </si>
   <si>
     <t>犬猫管理一覧</t>
-  </si>
-  <si>
-    <t>トークルーム？</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>delete.php</t>
@@ -486,6 +478,29 @@
     <rPh sb="11" eb="13">
       <t>フメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークルーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークルーム？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルで見れない？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;p class="c"&gt;
+                &lt;input type="submit" value="この内容で変更する" name="send" formaction="animal_change_complet.php" class="btn_one"&gt;
+            &lt;/p&gt;
+            &lt;p class="c"&gt;
+                &lt;input type="submit" value="戻る" formaction="animal_change.php" class="btn_back_one"&gt;
+            &lt;/p&gt;
+&lt;button type="button" class="btn_back_one martop10" onclick="location.href='login.php'"&gt;戻る&lt;/button&gt;
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,7 +508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,8 +547,39 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,12 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,6 +705,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,39 +1017,39 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="14"/>
+      <c r="F1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -988,13 +1058,13 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -1003,13 +1073,15 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -1018,11 +1090,13 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
@@ -1031,22 +1105,28 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
@@ -1055,13 +1135,13 @@
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="C7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -1070,13 +1150,13 @@
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="C8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -1085,50 +1165,58 @@
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="16"/>
+      <c r="C10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
@@ -1137,13 +1225,13 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
@@ -1152,13 +1240,13 @@
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
@@ -1167,13 +1255,13 @@
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
@@ -1182,11 +1270,11 @@
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
@@ -1195,13 +1283,13 @@
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="C17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
@@ -1210,229 +1298,239 @@
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="C23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="C24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="3"/>
+      <c r="C34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1443,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A14"/>
+  <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1456,42 +1554,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/デザイン進捗.xlsx
+++ b/デザイン進捗.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>about.php</t>
     <phoneticPr fontId="1"/>
@@ -459,13 +459,6 @@
     <t>犬猫登録画面 変更 確認</t>
     <rPh sb="10" eb="12">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄色はまだやってない</t>
-    <rPh sb="0" eb="2">
-      <t>キイロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -503,12 +496,29 @@
 </t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新したらIDの表示消える</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,22 +558,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -571,15 +565,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,9 +681,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -706,29 +696,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,7 +1001,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1046,10 +1030,8 @@
       <c r="E1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="12"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -1064,7 +1046,9 @@
       <c r="D2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -1096,7 +1080,9 @@
       <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
@@ -1111,7 +1097,9 @@
       <c r="D5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
@@ -1126,7 +1114,9 @@
       <c r="D6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
@@ -1141,7 +1131,9 @@
       <c r="D7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -1156,7 +1148,9 @@
       <c r="D8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -1171,22 +1165,26 @@
       <c r="D9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -1195,13 +1193,15 @@
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
@@ -1210,13 +1210,15 @@
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
@@ -1231,7 +1233,9 @@
       <c r="D13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
@@ -1246,7 +1250,9 @@
       <c r="D14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
@@ -1261,7 +1267,9 @@
       <c r="D15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
@@ -1273,10 +1281,14 @@
       <c r="C16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1289,9 +1301,11 @@
       <c r="D17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1304,9 +1318,11 @@
       <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1319,9 +1335,11 @@
       <c r="D19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E19" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -1334,9 +1352,11 @@
       <c r="D20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="E20" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -1346,12 +1366,14 @@
       <c r="C21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1362,9 +1384,11 @@
       <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -1375,9 +1399,11 @@
       <c r="D23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1390,9 +1416,11 @@
       <c r="D24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1405,37 +1433,41 @@
       <c r="D25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1448,9 +1480,11 @@
       <c r="D28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E28" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -1463,9 +1497,11 @@
       <c r="D29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E29" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -1478,9 +1514,11 @@
       <c r="D30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E30" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
@@ -1493,9 +1531,11 @@
       <c r="D31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E31" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
@@ -1508,7 +1548,12 @@
       <c r="D32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
@@ -1517,7 +1562,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="24"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
@@ -1530,7 +1575,9 @@
       <c r="D34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1543,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1594,7 +1641,7 @@
     </row>
     <row r="16" spans="1:1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
